--- a/listaContactos.xlsx
+++ b/listaContactos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Movil</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Imagen</t>
   </si>
   <si>
-    <t>52_7752365001</t>
+    <t>52_7721122615</t>
   </si>
   <si>
     <t>📢 Le presento los ★Lotes Residenciales, Privada Tilo★
@@ -47,7 +47,7 @@
     <t>C:\Users\Administrator\Downloads\valdepenas.jpg</t>
   </si>
   <si>
-    <t>52_7752415100</t>
+    <t>52_7732029733</t>
   </si>
   <si>
     <t>📢 Le presento los ★Lotes Residenciales, Privada Tilo★
@@ -66,88 +66,7 @@
 💡¿Te interesa obtener más información de este lote?</t>
   </si>
   <si>
-    <t>52_7752516257</t>
-  </si>
-  <si>
-    <t>52_7752607961</t>
-  </si>
-  <si>
-    <t>52_7757575763</t>
-  </si>
-  <si>
-    <t>52_7751108352</t>
-  </si>
-  <si>
-    <t>52_7751304228</t>
-  </si>
-  <si>
-    <t>52_7751178087</t>
-  </si>
-  <si>
-    <t>52_7751294119</t>
-  </si>
-  <si>
-    <t>52_7751304638</t>
-  </si>
-  <si>
-    <t>52_7751006938</t>
-  </si>
-  <si>
-    <t>52_7751179668</t>
-  </si>
-  <si>
-    <t>52_7751644401</t>
-  </si>
-  <si>
-    <t>52_7752289320</t>
-  </si>
-  <si>
-    <t>52_7752556640</t>
-  </si>
-  <si>
-    <t>52_7752566874</t>
-  </si>
-  <si>
-    <t>52_7752581047</t>
-  </si>
-  <si>
-    <t>52_7757591110</t>
-  </si>
-  <si>
-    <t>52_7751662858</t>
-  </si>
-  <si>
-    <t>52_7751187501</t>
-  </si>
-  <si>
-    <t>52_7751829014</t>
-  </si>
-  <si>
-    <t>52_7751419721</t>
-  </si>
-  <si>
-    <t>52_7751495239</t>
-  </si>
-  <si>
-    <t>52_7751652748</t>
-  </si>
-  <si>
-    <t>52_7751824848</t>
-  </si>
-  <si>
-    <t>52_4171111505</t>
-  </si>
-  <si>
-    <t>52_5518605354</t>
-  </si>
-  <si>
-    <t>52_5544532005</t>
-  </si>
-  <si>
-    <t>52_5548339174</t>
-  </si>
-  <si>
-    <t>52_6151616650</t>
+    <t>52_7721339673</t>
   </si>
 </sst>
 </file>
@@ -556,7 +475,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -567,7 +486,7 @@
     <col min="3" max="3" style="6" width="54.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -578,7 +497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="40.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="268.5" customFormat="1" s="1">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -589,7 +508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="268.5" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -600,7 +519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="268.5" customFormat="1" s="1">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -608,303 +527,6 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="21" customFormat="1" s="1">
-      <c r="A29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="297" customFormat="1" s="1">
-      <c r="A30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="297" customFormat="1" s="1">
-      <c r="A31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="2" t="s">
         <v>5</v>
       </c>
     </row>
